--- a/biology/Zoologie/Ctenognathus/Ctenognathus.xlsx
+++ b/biology/Zoologie/Ctenognathus/Ctenognathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le genre de conodontes Ctenognathus Pander, 1856, voir Ctenognathodus Fay, 1959.
 Ctenognathus est un genre de coléoptères de la famille des Carabidae, de la sous-famille des Platyninae, de la tribu des Platynini et de la sous-tribu des Platynina.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ctenognathus a été créé en 1843 par l'entomologiste français Léon Fairmaire (1820–1906)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ctenognathus a été créé en 1843 par l'entomologiste français Léon Fairmaire (1820–1906),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (26 juillet 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (26 juillet 2022) :
 Ctenognathus actochares Broun, 1894
 Ctenognathus adamsi (Broun, 1886)
 Ctenognathus arnaudensis (Broun, 1921)
@@ -618,9 +634,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Ctenognathus, dérive du grec ancien κτενίον, ktenion, « peigne » et γνάθος, gnathos, « mâchoire », en référence à leurs mâchoires pectinées[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Ctenognathus, dérive du grec ancien κτενίον, ktenion, « peigne » et γνάθος, gnathos, « mâchoire », en référence à leurs mâchoires pectinées.
 </t>
         </is>
       </c>
@@ -649,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Léon Fairmaire, « Description de trois nouvelles espèces de Coléoptères de l'Océanie », Annales de la Société entomologique de France, Paris, SEF et Taylor &amp; Francis, vol. 1,‎ 18 janvier 1843, p. 11-15 (ISSN 0037-9271 et 2168-6351, OCLC 1765810, lire en ligne)</t>
         </is>
